--- a/temp.xlsx
+++ b/temp.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,12 +409,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:36:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:20:00</t>
+          <t>23:36:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E3">
@@ -476,206 +476,6 @@
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020-03-24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2020-03-25</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2020-03-26</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2020-03-27</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2020-03-28</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>.</t>
         </is>
